--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2223064.675804107</v>
+        <v>2327244.310255179</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>90.50519121882354</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>41.84212836818404</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>96.47271252687838</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>101.3208278811446</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>230.6968828249249</v>
+        <v>29.76498982117955</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247899</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>132.3564627039145</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.029062540895</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>360.1095707111151</v>
+        <v>232.8521789952017</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>61.99218681250244</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1342,7 +1344,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>81.71597553045042</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>52.47682210852988</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,10 +1581,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>65.44930784064577</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>211.5497439062037</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>206.690869499235</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>14.53306611597334</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444113</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695685</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2293,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>218.6444667192164</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>217.9972384299662</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>87.71169339385553</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>43.87236189622282</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784706</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2725,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>60.25690685266577</v>
       </c>
       <c r="H28" t="n">
-        <v>109.8058856274581</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>177.1006680594871</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.4076860934771</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>138.7157037776618</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>221.6488161050621</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>107.3741909183123</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>133.3722917337067</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>177.1006680594871</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>45.17596778974989</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>11.76284745948832</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>132.6315337216692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1323.570355598077</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3283.341045479691</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3029.810568753528</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2698.747681409957</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2345.979026139843</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.979026139843</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.3151575124868</v>
+        <v>630.9252167254034</v>
       </c>
       <c r="C4" t="n">
-        <v>361.3151575124868</v>
+        <v>461.9890337974965</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>311.8723943851608</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>163.9593008027676</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1824.950277501478</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1535.847410627122</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1281.162922421235</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>991.7457523842741</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X4" t="n">
-        <v>763.7562014862567</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="Y4" t="n">
-        <v>542.9636223427266</v>
+        <v>812.5736815556431</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2209.232076102164</v>
+        <v>1648.004869410822</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4556,61 +4558,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939511</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296689</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794327</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W5" t="n">
-        <v>2972.837166339056</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="X5" t="n">
-        <v>2599.371408077976</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.232076102164</v>
+        <v>2034.604709474944</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.4305777370295</v>
+        <v>676.4685272225361</v>
       </c>
       <c r="C7" t="n">
-        <v>478.4305777370295</v>
+        <v>507.5323442946292</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>507.5323442946292</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>359.6192507122361</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4756,19 +4758,19 @@
         <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1548.361223971665</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1548.361223971665</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X7" t="n">
-        <v>776.2700148307995</v>
+        <v>1030.954503036687</v>
       </c>
       <c r="Y7" t="n">
-        <v>660.0790425672692</v>
+        <v>810.1619238931568</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278969</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="D8" t="n">
-        <v>869.0763550278969</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="E8" t="n">
-        <v>483.2881024296526</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4823,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.3518203322459</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1563.23681724815</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1274.133950373793</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1274.133950373793</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1274.133950373793</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>1046.144399475776</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y10" t="n">
-        <v>825.3518203322459</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5081,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5318,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
         <v>484.8112968429803</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5555,10 +5557,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168587</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362661</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>2257.062161108197</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>2854.440648734749</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>810.0653816078141</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>641.1291986799072</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1756.608083824432</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1501.923595618545</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1212.506425581584</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X22" t="n">
-        <v>1212.506425581584</v>
+        <v>985.5125840134625</v>
       </c>
       <c r="Y22" t="n">
-        <v>991.7138464380538</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697.5276345711973</v>
+        <v>3122.22696873374</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711973</v>
+        <v>2953.290785805833</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>2803.174146393498</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>2655.261052811104</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>2508.371105313194</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2508.371105313194</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.968678544967</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.176099401437</v>
+        <v>3122.22696873374</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6221,28 +6223,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6257,13 +6259,13 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>985.7836617409695</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>816.8474788130626</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>666.7308394007268</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E28" t="n">
-        <v>518.8177458183337</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F28" t="n">
-        <v>371.9277983204233</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G28" t="n">
-        <v>204.7316990353033</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6382,52 +6384,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1905.631426649717</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1616.214256612757</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>1388.224705714739</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>1167.432126571209</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,37 +6478,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714573</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356194</v>
+        <v>3342.537229081858</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>4151.857387650097</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>4151.857387650097</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>3972.967823953645</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>3744.978273055628</v>
       </c>
       <c r="Y31" t="n">
-        <v>929.7309773356194</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>924.6979859831846</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C34" t="n">
-        <v>755.7618030552777</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D34" t="n">
-        <v>605.645163642942</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E34" t="n">
-        <v>457.7320700605488</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F34" t="n">
-        <v>457.7320700605488</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>4180.29829063852</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>3890.88112060156</v>
       </c>
       <c r="X34" t="n">
-        <v>1327.139029956954</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="Y34" t="n">
-        <v>1106.346450813424</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,16 +6955,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6974,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703114</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424045</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D37" t="n">
-        <v>376.4492432300688</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E37" t="n">
-        <v>228.5361496476756</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>228.5361496476756</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7168,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.53722908186</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153953</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741617</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4151.857387650099</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>4151.857387650099</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3972.967823953647</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912099</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,19 +7408,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811332</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532263</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797821</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910817</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832671</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487575</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510516</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854714</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648827</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611866</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X43" t="n">
-        <v>1132.402531511373</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.07903472198</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O45" t="n">
-        <v>2253.988764961267</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-1.598721155460225e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>114.7699989900979</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>220.7351665485984</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>14.15991148283345</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>45.44677382459301</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>67.54000767002776</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>68.52575990662484</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>52.58301945236836</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>181.8372934928143</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H28" t="n">
-        <v>30.48882721876579</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24889,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>109.4223302771039</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.176967258617708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>26.80843451460706</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>30.48882721876586</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>39.05977172825689</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>32.15184655856211</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>109.4223302771039</v>
+        <v>207.8347205162519</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>172.2294825375384</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9468079295488</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>84.77391660561906</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816905.7031302035</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.327398212</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675046</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="L2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.977382704713819e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813233</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
+        <v>10557.08828678125</v>
+      </c>
+      <c r="H4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.0882867811</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678113</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678131</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26522,46 +26524,46 @@
         <v>-910641.4819489061</v>
       </c>
       <c r="C6" t="n">
-        <v>418103.2637786864</v>
+        <v>418103.2637786858</v>
       </c>
       <c r="D6" t="n">
-        <v>418103.2637786866</v>
+        <v>418103.2637786872</v>
       </c>
       <c r="E6" t="n">
-        <v>168267.8698494608</v>
+        <v>168267.869849461</v>
       </c>
       <c r="F6" t="n">
+        <v>493680.3316568161</v>
+      </c>
+      <c r="G6" t="n">
         <v>493680.3316568158</v>
       </c>
-      <c r="G6" t="n">
-        <v>493680.3316568159</v>
-      </c>
       <c r="H6" t="n">
-        <v>493680.3316568164</v>
+        <v>493680.3316568162</v>
       </c>
       <c r="I6" t="n">
-        <v>493680.3316568159</v>
+        <v>493680.3316568162</v>
       </c>
       <c r="J6" t="n">
-        <v>276149.1292595385</v>
+        <v>276149.1292595383</v>
       </c>
       <c r="K6" t="n">
+        <v>493680.3316568158</v>
+      </c>
+      <c r="L6" t="n">
+        <v>493680.331656816</v>
+      </c>
+      <c r="M6" t="n">
+        <v>408625.3037213041</v>
+      </c>
+      <c r="N6" t="n">
         <v>493680.3316568161</v>
       </c>
-      <c r="L6" t="n">
-        <v>493680.3316568159</v>
-      </c>
-      <c r="M6" t="n">
-        <v>408625.3037213042</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>493680.331656816</v>
+      </c>
+      <c r="P6" t="n">
         <v>493680.3316568158</v>
-      </c>
-      <c r="O6" t="n">
-        <v>493680.3316568157</v>
-      </c>
-      <c r="P6" t="n">
-        <v>493680.3316568161</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>291.4251788534382</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>162.0758417714361</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>48.94833549605286</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>118.2281213950246</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>134.5760089460827</v>
+        <v>335.507901949828</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>47.47551747802282</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>103.5555908111998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>46.76647503059638</v>
+        <v>174.0238667465097</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>105.2546342861254</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>137.8329737457188</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28627,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29518,7 +29520,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31835,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>216.0947523943934</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>489.8124929257571</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32254,7 +32256,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N18" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338194</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>604.2458225991924</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>675.4898072958217</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>707.690770008913</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>434.178635838203</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860823</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>281.0363767960749</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>399.0581126127089</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>77.54037261451923</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35902,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N18" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>25.73094315394525</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36217,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>472.904110515859</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>533.3557733738033</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>576.3490579255797</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>291.5823913937585</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.190340064064</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.342014319139</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>138.9023428740566</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>265.0837051983787</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2327244.310255179</v>
+        <v>2323231.700241186</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>90.50519121882354</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>132.9870153438506</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>96.47271252687838</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>14.06814972518884</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>29.76498982117955</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>183.1642512458438</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247899</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.3564627039145</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>207.8637492714481</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>310.9299993360286</v>
       </c>
       <c r="F8" t="n">
-        <v>232.8521789952017</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>61.99218681250244</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>148.1480515981181</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1350,13 +1350,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>52.47682210852988</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>178.3456785990314</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>23.0813445778639</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1821,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>211.5497439062037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>206.690869499235</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>217.9972384299662</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>87.71169339385553</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>60.25690685266577</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>177.1006680594871</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>221.6488161050621</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>107.3741909183123</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>78.6882778203391</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>45.17596778974989</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204828</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.836054204828</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1323.570355598077</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.9252167254034</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="C4" t="n">
-        <v>461.9890337974965</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D4" t="n">
-        <v>311.8723943851608</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E4" t="n">
-        <v>163.9593008027676</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4488,16 +4488,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556431</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X4" t="n">
-        <v>812.5736815556431</v>
+        <v>1079.879770723623</v>
       </c>
       <c r="Y4" t="n">
-        <v>812.5736815556431</v>
+        <v>859.0871915800925</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.004869410822</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839474</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939511</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296689</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794327</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450756</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450756</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450756</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474944</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387319</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927795</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158138</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>676.4685272225361</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C7" t="n">
-        <v>507.5323442946292</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946292</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>359.6192507122361</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218346</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971665</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1548.361223971665</v>
+        <v>1717.33116498602</v>
       </c>
       <c r="W7" t="n">
-        <v>1258.944053934704</v>
+        <v>1427.913994949059</v>
       </c>
       <c r="X7" t="n">
-        <v>1030.954503036687</v>
+        <v>1199.924444051042</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.1619238931568</v>
+        <v>979.1318649075118</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549927</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="D8" t="n">
-        <v>758.7856865549927</v>
+        <v>1546.221676928587</v>
       </c>
       <c r="E8" t="n">
-        <v>758.7856865549927</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,25 +4804,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4849,7 +4849,7 @@
         <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>443.0505103572859</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
         <v>212.7293032143257</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1777.650051524737</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1555.883436094263</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1266.780569219907</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1012.09608101402</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1012.09608101402</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4915543310558</v>
+        <v>784.1065301160024</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6989751875257</v>
+        <v>563.3139509724723</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,10 +5035,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5047,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5260,22 +5260,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>924.8344286397182</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1552.432392194325</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.8410298377091</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.282073811479</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.4894946679489</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5542,19 +5542,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591808</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.7594328861248</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>390.823249958218</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1479.607197794873</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1190.190027757912</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>962.2004768598947</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.4078977163646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>2257.062161108197</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>2854.440648734749</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>3482.038612289356</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>985.5125840134625</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300425</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3122.22696873374</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>2953.290785805833</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>2803.174146393498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2655.261052811104</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2508.371105313194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2508.371105313194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3571.009098775287</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3343.01954787727</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3122.22696873374</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6217,22 +6217,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057155</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>301.5721730233224</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>154.6822255254121</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081858</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153951</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159222</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.932614305899</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4151.857387650097</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>4151.857387650097</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953645</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055628</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,10 +6727,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.450525729772</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801865</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4404.185983673937</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>4180.29829063852</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3890.88112060156</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3662.891569703542</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3442.098990560012</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7022,13 +7022,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>748.5648313007904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>598.4481918884546</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7499,19 +7499,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>2334.285089135946</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>2045.209862480144</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1790.525374274257</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2716.927329289434</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7797,10 +7797,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.598721155460225e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>40.23897475306342</v>
       </c>
     </row>
     <row r="14">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>144.1654765207639</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>14.15991148283345</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>45.44677382459301</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>68.52575990662484</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>52.58301945236836</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>15.02465210191951</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>105.2672314396031</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>109.4223302771039</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>30.48882721876586</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>39.05977172825689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>172.2294825375384</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.327398212</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="M2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="N2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>5.977382704713819e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813233</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26432,7 +26432,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
@@ -26441,13 +26441,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="L4" t="n">
         <v>10557.08828678125</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10557.08828678127</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-910641.4819489061</v>
+        <v>-910641.4819489056</v>
       </c>
       <c r="C6" t="n">
-        <v>418103.2637786858</v>
+        <v>418103.2637786863</v>
       </c>
       <c r="D6" t="n">
-        <v>418103.2637786872</v>
+        <v>418103.2637786864</v>
       </c>
       <c r="E6" t="n">
-        <v>168267.869849461</v>
+        <v>167920.4905951042</v>
       </c>
       <c r="F6" t="n">
-        <v>493680.3316568161</v>
+        <v>493332.9524024591</v>
       </c>
       <c r="G6" t="n">
-        <v>493680.3316568158</v>
+        <v>493332.9524024591</v>
       </c>
       <c r="H6" t="n">
-        <v>493680.3316568162</v>
+        <v>493332.9524024592</v>
       </c>
       <c r="I6" t="n">
-        <v>493680.3316568162</v>
+        <v>493332.9524024588</v>
       </c>
       <c r="J6" t="n">
-        <v>276149.1292595383</v>
+        <v>275801.7500051815</v>
       </c>
       <c r="K6" t="n">
-        <v>493680.3316568158</v>
+        <v>493332.9524024589</v>
       </c>
       <c r="L6" t="n">
-        <v>493680.331656816</v>
+        <v>493332.9524024589</v>
       </c>
       <c r="M6" t="n">
-        <v>408625.3037213041</v>
+        <v>408277.924466947</v>
       </c>
       <c r="N6" t="n">
-        <v>493680.3316568161</v>
+        <v>493332.9524024589</v>
       </c>
       <c r="O6" t="n">
-        <v>493680.331656816</v>
+        <v>493332.9524024589</v>
       </c>
       <c r="P6" t="n">
-        <v>493680.3316568158</v>
+        <v>493332.9524024589</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>291.4251788534382</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>253.250923312203</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>48.94833549605286</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>211.6415056638483</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>335.507901949828</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>186.5668494326252</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.47551747802282</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>44.27389405237994</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>71.00037073623315</v>
       </c>
       <c r="F8" t="n">
-        <v>174.0238667465097</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>105.2546342861254</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>41.62097373332384</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28070,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29520,7 +29520,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31840,16 +31840,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>216.0947523943934</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32077,31 +32077,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>489.8124929257571</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32238,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>568.8264345569168</v>
       </c>
       <c r="M18" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>604.2458225991924</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M27" t="n">
-        <v>675.4898072958217</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33262,7 +33262,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>707.690770008913</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33499,10 +33499,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>434.178635838203</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>602.4605829984181</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34453,22 +34453,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>281.0363767960749</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>77.54037261451923</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35725,31 +35725,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>347.2162484813126</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="M18" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394525</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,13 +36366,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>472.904110515859</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M27" t="n">
-        <v>533.3557733738033</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36910,7 +36910,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>576.3490579255797</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37147,10 +37147,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>291.5823913937585</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>471.1188709150848</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>138.9023428740566</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2323231.700241186</v>
+        <v>2324992.230543971</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>78.35381101375935</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.9870153438506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.817218682477</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>14.06814972518884</v>
+        <v>2.451579104186333</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -952,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>183.1642512458438</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>373.5689935409314</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>80.00124118081828</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>207.8637492714481</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>310.9299993360286</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863191</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>148.1480515981181</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>254.809596790797</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3456785990314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>23.0813445778639</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>192.9569204599011</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>116.2873251119337</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>5.42162358678916</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426839</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>61.44013021076765</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>133.5908209162928</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2162996298078</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2126.729101932994</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1757.766584992582</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1399.500886385832</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1013.712633787588</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>602.7267289979802</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>187.6542788429767</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W2" t="n">
-        <v>2866.097597267229</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X2" t="n">
-        <v>2866.097597267229</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2513.328941997116</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080143</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>677.4387267498528</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>677.4387267498528</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>527.322087337517</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,16 +4509,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
         <v>1638.191681214136</v>
@@ -4527,13 +4527,13 @@
         <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971288</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X4" t="n">
-        <v>1079.879770723623</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y4" t="n">
-        <v>859.0871915800925</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1321.167210201447</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>797.4834000772721</v>
+        <v>1075.097337786232</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>906.1611548583251</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>756.0445154459893</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>608.1314218635962</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>461.2414743656858</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>293.5386377404047</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>147.3214509582625</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1717.33116498602</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.913994949059</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="X7" t="n">
-        <v>1199.924444051042</v>
+        <v>1477.538381760002</v>
       </c>
       <c r="Y7" t="n">
-        <v>979.1318649075118</v>
+        <v>1256.745802616472</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1904.487375535338</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1904.487375535338</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1546.221676928587</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535338</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.6654861422326</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143257</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143257</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1777.650051524737</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1555.883436094263</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1266.780569219907</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1012.09608101402</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W10" t="n">
-        <v>1012.09608101402</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X10" t="n">
-        <v>784.1065301160024</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>563.3139509724723</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5260,70 +5260,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,13 +5764,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,13 +5843,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,13 +6080,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.2946447138411</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3584617859342</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E28" t="n">
         <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>31.713401545794</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>40.23897475306342</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>144.1654765207639</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>32.7527349291361</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>135.8503182118943</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>211.9838267404991</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>15.02465210191951</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>63.36835372228703</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816905.7031302033</v>
+        <v>816905.7031302034</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>816905.7031302034</v>
+        <v>816905.7031302033</v>
       </c>
     </row>
     <row r="11">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675045</v>
@@ -26337,19 +26337,19 @@
         <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675042</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813243</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26435,7 +26435,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26447,7 +26447,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-910641.4819489056</v>
+        <v>-910641.4819489061</v>
       </c>
       <c r="C6" t="n">
-        <v>418103.2637786863</v>
+        <v>418103.2637786865</v>
       </c>
       <c r="D6" t="n">
-        <v>418103.2637786864</v>
+        <v>418103.2637786865</v>
       </c>
       <c r="E6" t="n">
-        <v>167920.4905951042</v>
+        <v>168233.1319240251</v>
       </c>
       <c r="F6" t="n">
-        <v>493332.9524024591</v>
+        <v>493645.5937313802</v>
       </c>
       <c r="G6" t="n">
-        <v>493332.9524024591</v>
+        <v>493645.59373138</v>
       </c>
       <c r="H6" t="n">
-        <v>493332.9524024592</v>
+        <v>493645.5937313804</v>
       </c>
       <c r="I6" t="n">
-        <v>493332.9524024588</v>
+        <v>493645.5937313801</v>
       </c>
       <c r="J6" t="n">
-        <v>275801.7500051815</v>
+        <v>276114.3913341028</v>
       </c>
       <c r="K6" t="n">
-        <v>493332.9524024589</v>
+        <v>493645.5937313801</v>
       </c>
       <c r="L6" t="n">
-        <v>493332.9524024589</v>
+        <v>493645.5937313801</v>
       </c>
       <c r="M6" t="n">
-        <v>408277.924466947</v>
+        <v>408590.5657958683</v>
       </c>
       <c r="N6" t="n">
-        <v>493332.9524024589</v>
+        <v>493645.5937313801</v>
       </c>
       <c r="O6" t="n">
-        <v>493332.9524024589</v>
+        <v>493645.5937313802</v>
       </c>
       <c r="P6" t="n">
-        <v>493332.9524024589</v>
+        <v>493645.5937313802</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>216.2539533735611</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>253.250923312203</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6415056638483</v>
+        <v>223.2580762848508</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>186.5668494326252</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>12.6689451151222</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>16.35117922901981</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,16 +27827,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>44.27389405237994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>71.00037073623315</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>168.06888189215</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>41.62097373332384</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>75.50340795433985</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31843,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>568.8264345569168</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>430.2720547770426</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>374.5201816365647</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
